--- a/Results_Comparing/Count_Rating_2.25M.xlsx
+++ b/Results_Comparing/Count_Rating_2.25M.xlsx
@@ -4,7 +4,7 @@
   <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet r:id="rId1" sheetId="1" name="SVD"/>
@@ -60,7 +60,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -70,13 +70,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -134,7 +128,7 @@
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
     </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
@@ -447,165 +441,6 @@
   </sheetPr>
   <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="1"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-  </cols>
-  <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
-      <c r="A2" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="4">
-        <v>0.8303100732156058</v>
-      </c>
-      <c r="C2" s="4">
-        <v>0.6272960036592934</v>
-      </c>
-      <c r="D2" s="4">
-        <v>13.91904640197754</v>
-      </c>
-      <c r="E2" s="4">
-        <v>5.737430572509766</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
-      <c r="A3" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="4">
-        <v>0.8322102910592981</v>
-      </c>
-      <c r="C3" s="4">
-        <v>0.6291847830543656</v>
-      </c>
-      <c r="D3" s="4">
-        <v>15.3206570148468</v>
-      </c>
-      <c r="E3" s="4">
-        <v>5.961449384689331</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
-      <c r="A4" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="4">
-        <v>0.8329391529419903</v>
-      </c>
-      <c r="C4" s="4">
-        <v>0.6290382427529649</v>
-      </c>
-      <c r="D4" s="4">
-        <v>14.50460696220398</v>
-      </c>
-      <c r="E4" s="4">
-        <v>6.172240018844604</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
-      <c r="A5" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="4">
-        <v>0.8312604010180451</v>
-      </c>
-      <c r="C5" s="4">
-        <v>0.6282098619243721</v>
-      </c>
-      <c r="D5" s="4">
-        <v>14.70110535621643</v>
-      </c>
-      <c r="E5" s="4">
-        <v>5.695428371429443</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
-      <c r="A6" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" s="4">
-        <v>0.8307351572384827</v>
-      </c>
-      <c r="C6" s="4">
-        <v>0.627351316306296</v>
-      </c>
-      <c r="D6" s="4">
-        <v>13.66102886199951</v>
-      </c>
-      <c r="E6" s="4">
-        <v>5.190391302108765</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
-      <c r="A7" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" s="4">
-        <v>0.8314910150946844</v>
-      </c>
-      <c r="C7" s="4">
-        <v>0.6282160415394584</v>
-      </c>
-      <c r="D7" s="4">
-        <v>14.42128891944885</v>
-      </c>
-      <c r="E7" s="4">
-        <v>5.751387929916381</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
-      <c r="A8" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8" s="4">
-        <v>0.001076288624273069</v>
-      </c>
-      <c r="C8" s="4">
-        <v>0.0008956467740752016</v>
-      </c>
-      <c r="D8" s="4">
-        <v>0.5872554821987414</v>
-      </c>
-      <c r="E8" s="4">
-        <v>0.3284161360103744</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <outlinePr summaryBelow="0"/>
-  </sheetPr>
-  <dimension ref="A1:E8"/>
-  <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -639,16 +474,16 @@
         <v>5</v>
       </c>
       <c r="B2" s="4">
-        <v>0.807163081943018</v>
+        <v>0.8303100732156058</v>
       </c>
       <c r="C2" s="4">
-        <v>0.6105591192447205</v>
+        <v>0.6272960036592934</v>
       </c>
       <c r="D2" s="4">
-        <v>170.964809179306</v>
+        <v>13.91904640197754</v>
       </c>
       <c r="E2" s="4">
-        <v>205.7636575698853</v>
+        <v>5.737430572509766</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
@@ -656,16 +491,16 @@
         <v>6</v>
       </c>
       <c r="B3" s="4">
-        <v>0.803582316282068</v>
+        <v>0.8322102910592981</v>
       </c>
       <c r="C3" s="4">
-        <v>0.6078115727833077</v>
+        <v>0.6291847830543656</v>
       </c>
       <c r="D3" s="4">
-        <v>170.1506412029266</v>
+        <v>15.3206570148468</v>
       </c>
       <c r="E3" s="4">
-        <v>220.9784970283508</v>
+        <v>5.961449384689331</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
@@ -673,16 +508,16 @@
         <v>7</v>
       </c>
       <c r="B4" s="4">
-        <v>0.8070082959567587</v>
+        <v>0.8329391529419903</v>
       </c>
       <c r="C4" s="4">
-        <v>0.6103797588014017</v>
+        <v>0.6290382427529649</v>
       </c>
       <c r="D4" s="4">
-        <v>166.2847127914429</v>
+        <v>14.50460696220398</v>
       </c>
       <c r="E4" s="4">
-        <v>223.3233296871185</v>
+        <v>6.172240018844604</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
@@ -690,16 +525,16 @@
         <v>8</v>
       </c>
       <c r="B5" s="4">
-        <v>0.8065180716319673</v>
+        <v>0.8312604010180451</v>
       </c>
       <c r="C5" s="4">
-        <v>0.6100762560156409</v>
+        <v>0.6282098619243721</v>
       </c>
       <c r="D5" s="4">
-        <v>163.8565335273743</v>
+        <v>14.70110535621643</v>
       </c>
       <c r="E5" s="4">
-        <v>221.0000655651093</v>
+        <v>5.695428371429443</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
@@ -707,16 +542,16 @@
         <v>9</v>
       </c>
       <c r="B6" s="4">
-        <v>0.8050985746824663</v>
+        <v>0.8307351572384827</v>
       </c>
       <c r="C6" s="4">
-        <v>0.6094808875158989</v>
+        <v>0.627351316306296</v>
       </c>
       <c r="D6" s="4">
-        <v>151.112381696701</v>
+        <v>13.66102886199951</v>
       </c>
       <c r="E6" s="4">
-        <v>215.0747208595276</v>
+        <v>5.190391302108765</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
@@ -724,6 +559,165 @@
         <v>10</v>
       </c>
       <c r="B7" s="4">
+        <v>0.8314910150946844</v>
+      </c>
+      <c r="C7" s="4">
+        <v>0.6282160415394584</v>
+      </c>
+      <c r="D7" s="4">
+        <v>14.42128891944885</v>
+      </c>
+      <c r="E7" s="4">
+        <v>5.751387929916381</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
+      <c r="A8" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="4">
+        <v>0.001076288624273069</v>
+      </c>
+      <c r="C8" s="4">
+        <v>0.0008956467740752016</v>
+      </c>
+      <c r="D8" s="4">
+        <v>0.5872554821987414</v>
+      </c>
+      <c r="E8" s="4">
+        <v>0.3284161360103744</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
+  <dimension ref="A1:E8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" tabSelected="1"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
+  </cols>
+  <sheetData>
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="20.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
+      <c r="A2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="4">
+        <v>0.807163081943018</v>
+      </c>
+      <c r="C2" s="4">
+        <v>0.6105591192447205</v>
+      </c>
+      <c r="D2" s="4">
+        <v>170.964809179306</v>
+      </c>
+      <c r="E2" s="4">
+        <v>205.7636575698853</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
+      <c r="A3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="4">
+        <v>0.803582316282068</v>
+      </c>
+      <c r="C3" s="4">
+        <v>0.6078115727833077</v>
+      </c>
+      <c r="D3" s="4">
+        <v>170.1506412029266</v>
+      </c>
+      <c r="E3" s="4">
+        <v>220.9784970283508</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
+      <c r="A4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="4">
+        <v>0.8070082959567587</v>
+      </c>
+      <c r="C4" s="4">
+        <v>0.6103797588014017</v>
+      </c>
+      <c r="D4" s="4">
+        <v>166.2847127914429</v>
+      </c>
+      <c r="E4" s="4">
+        <v>223.3233296871185</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
+      <c r="A5" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="4">
+        <v>0.8065180716319673</v>
+      </c>
+      <c r="C5" s="4">
+        <v>0.6100762560156409</v>
+      </c>
+      <c r="D5" s="4">
+        <v>163.8565335273743</v>
+      </c>
+      <c r="E5" s="4">
+        <v>221.0000655651093</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
+      <c r="A6" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="4">
+        <v>0.8050985746824663</v>
+      </c>
+      <c r="C6" s="4">
+        <v>0.6094808875158989</v>
+      </c>
+      <c r="D6" s="4">
+        <v>151.112381696701</v>
+      </c>
+      <c r="E6" s="4">
+        <v>215.0747208595276</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
+      <c r="A7" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="4">
         <v>0.8058740680992557</v>
       </c>
       <c r="C7" s="4">
@@ -736,7 +730,7 @@
         <v>217.2280541419983</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
       <c r="A8" s="3" t="s">
         <v>11</v>
       </c>
